--- a/POR1 - Document_Lines1.xlsx
+++ b/POR1 - Document_Lines1.xlsx
@@ -1832,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF4"/>
+  <dimension ref="A1:FF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1100472</v>
+        <v>1133835</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -3489,13 +3489,47 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1114924</v>
+        <v>1135049</v>
       </c>
       <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1135051</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1134908</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="N4" t="n">
-        <v>42</v>
+      <c r="N6" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/POR1 - Document_Lines1.xlsx
+++ b/POR1 - Document_Lines1.xlsx
@@ -1832,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF6"/>
+  <dimension ref="A1:FF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -3472,64 +3472,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1133835</v>
+        <v>1117236</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1135049</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1135051</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1134908</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
